--- a/Exportaciones FOB/Editado 2015/Exportación por Lugar de Salida 2015 - Mensual - Editado.xlsx
+++ b/Exportaciones FOB/Editado 2015/Exportación por Lugar de Salida 2015 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Exportaciones\FOB\2015\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\Exportaciones FOB\Editado 2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{542A4C21-29D5-4A7A-9A7F-4D2E6DD941A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AF05C1-D809-4386-A9C5-02AD5595A563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expo LugarSalida Monto FOB 2015" sheetId="2" r:id="rId1"/>
@@ -367,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -426,11 +426,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -465,6 +561,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,27 +571,430 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -505,6 +1005,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D244E62E-294B-4476-BFCE-010ED64C51D5}" name="exp_salida_2015" displayName="exp_salida_2015" ref="A1:M59" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:M59" xr:uid="{44D9D204-F9A5-4063-9288-85B2B89002EF}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{676ED925-4B71-412D-999A-A9F6C033371B}" name="Lugar de Salida (Puerto-Aeropuerto-Avanzada)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{868FB5B0-F01D-4996-946D-09D99080C206}" name="Enero - 2015" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B636F216-937D-461E-A1D5-73149123069E}" name="Febrero - 2015" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{54B38840-677E-43C8-8B20-80B0EB063542}" name="Marzo - 2015" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{9089508F-5981-4F09-8A89-1E8661FA1995}" name="Abril - 2015" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{6C62D373-9C87-488B-BBD3-84F865AE2681}" name="Mayo - 2015" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D59BE3E8-AB2F-431D-9A9D-F188DBB8F376}" name="Junio - 2015" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{F80FDF79-5702-4F6C-8801-65ACC723697E}" name="Julio - 2015" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{D0D44EF4-11C6-4000-B53B-112EA19A2F71}" name="Agosto - 2015" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{BDC130CA-7AF0-4A8D-BB1E-C64D8503FBB8}" name="Septiembre - 2015" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{751AEB00-BE39-4F09-AA9A-B8B202F551D4}" name="Octubre - 2015" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{FDE89428-C6A2-4C5B-A611-CC0AC2311483}" name="Noviembre - 2015" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{ECB107B9-6FAD-4290-94F4-B393EFD4A19F}" name="Diciembre - 2015" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,41 +1323,41 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -879,7 +1401,7 @@
       <c r="N4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="18"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -3498,7 +4020,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3515,2430 +4037,2433 @@
     <col min="10" max="10" width="18.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16">
         <v>377742781.91999954</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="16">
         <v>286638018.29000002</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="16">
         <v>358776259.33999979</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="16">
         <v>311794832.96999985</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="16">
         <v>246514713.27000031</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="16">
         <v>285533739.13</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="16">
         <v>302422219.00000024</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="16">
         <v>245763928.11000022</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="16">
         <v>242043640.52999985</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="16">
         <v>270997627.08000028</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="16">
         <v>315762033.47000027</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="21">
         <v>323503065.12000006</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="16">
         <v>374305.66</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="16">
         <v>312989.84999999998</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="16">
         <v>22419.39</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="16">
         <v>24131.41</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="16">
         <v>29515.48</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="16">
         <v>24576.98</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="16">
         <v>20699.969999999998</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="16">
         <v>32957.449999999997</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="16">
         <v>11671.630000000001</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="16">
         <v>36043.17</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="16">
         <v>136213.83000000002</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="21">
         <v>320261.76000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24">
-        <v>0</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
         <v>2040</v>
       </c>
-      <c r="H4" s="24">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24">
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
         <v>63701.98</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="16">
         <v>35939.11</v>
       </c>
-      <c r="K4" s="24">
-        <v>0</v>
-      </c>
-      <c r="L4" s="24">
-        <v>0</v>
-      </c>
-      <c r="M4" s="24">
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
         <v>26137.64</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="16">
         <v>171465.45</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="16">
         <v>88314.18</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="16">
         <v>112460.94</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="16">
         <v>36416.03</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="16">
         <v>40472.720000000001</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="16">
         <v>46486.86</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="16">
         <v>137759.09</v>
       </c>
-      <c r="I5" s="24">
-        <v>0</v>
-      </c>
-      <c r="J5" s="24">
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
         <v>127362.38</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="16">
         <v>4600000</v>
       </c>
-      <c r="L5" s="24">
-        <v>0</v>
-      </c>
-      <c r="M5" s="24">
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="16">
         <v>353109.77</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="16">
         <v>494350.45</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="16">
         <v>509700.22000000009</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="16">
         <v>693601.24</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="16">
         <v>389511.45999999996</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="16">
         <v>682134.38000000012</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="16">
         <v>727492.89</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="16">
         <v>505568.36</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="16">
         <v>490987.1399999999</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="16">
         <v>699759.22000000009</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="16">
         <v>361030.5400000001</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="21">
         <v>577702.94000000006</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="16">
         <v>20753.36</v>
       </c>
-      <c r="C7" s="24">
-        <v>0</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0</v>
-      </c>
-      <c r="F7" s="24">
-        <v>0</v>
-      </c>
-      <c r="G7" s="24">
-        <v>0</v>
-      </c>
-      <c r="H7" s="24">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24">
-        <v>0</v>
-      </c>
-      <c r="J7" s="24">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
-        <v>0</v>
-      </c>
-      <c r="L7" s="24">
-        <v>0</v>
-      </c>
-      <c r="M7" s="24">
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="24">
-        <v>0</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0</v>
-      </c>
-      <c r="D8" s="24">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
         <v>4325</v>
       </c>
-      <c r="E8" s="24">
-        <v>0</v>
-      </c>
-      <c r="F8" s="24">
-        <v>0</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24">
-        <v>0</v>
-      </c>
-      <c r="J8" s="24">
-        <v>0</v>
-      </c>
-      <c r="K8" s="24">
-        <v>0</v>
-      </c>
-      <c r="L8" s="24">
-        <v>0</v>
-      </c>
-      <c r="M8" s="24">
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="16">
         <v>652114399.90999985</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="16">
         <v>547757109.63999999</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="16">
         <v>500532040.59999996</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="16">
         <v>484169418.66999996</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="16">
         <v>532535339.04000014</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="16">
         <v>515552121.53999996</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="16">
         <v>239471521.37999997</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="16">
         <v>439850708.36999995</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="16">
         <v>185133831.28999999</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="16">
         <v>231643837.95999998</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="16">
         <v>235597105.56999996</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="21">
         <v>389438679.28999996</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="16">
         <v>25054752.979999993</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="16">
         <v>20300769.490000002</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="16">
         <v>38675581.900000013</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="16">
         <v>30220286.729999997</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="16">
         <v>44274298.25</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="16">
         <v>39240638.209999993</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="16">
         <v>32266676.239999995</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="16">
         <v>22163710.629999988</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="16">
         <v>39770382.469999991</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="16">
         <v>32896416.299999997</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="16">
         <v>23149973.859999996</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="21">
         <v>22393661.199999996</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="24">
-        <v>0</v>
-      </c>
-      <c r="C11" s="24">
-        <v>0</v>
-      </c>
-      <c r="D11" s="24">
-        <v>0</v>
-      </c>
-      <c r="E11" s="24">
-        <v>0</v>
-      </c>
-      <c r="F11" s="24">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
-        <v>0</v>
-      </c>
-      <c r="J11" s="24">
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
         <v>1300.6600000000001</v>
       </c>
-      <c r="K11" s="24">
-        <v>0</v>
-      </c>
-      <c r="L11" s="24">
-        <v>0</v>
-      </c>
-      <c r="M11" s="24">
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21">
         <v>684.76</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="16">
         <v>5542647.21</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="16">
         <v>10331.89</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="16">
         <v>6371534.9299999997</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="16">
         <v>13443917.960000001</v>
       </c>
-      <c r="F12" s="24">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24">
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
         <v>749901.27</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="16">
         <v>1339239.9099999999</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="16">
         <v>2999573.04</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="16">
         <v>3233946.71</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="16">
         <v>3710919.66</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="16">
         <v>5464052.0099999998</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="21">
         <v>8561210.0600000005</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="16">
         <v>10640192.460000001</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="16">
         <v>14300.42</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="16">
         <v>9730.7000000000007</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="16">
         <v>11265372.91</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="16">
         <v>6594815.2700000005</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="16">
         <v>3758293.86</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="16">
         <v>3427450.7300000004</v>
       </c>
-      <c r="I13" s="24">
-        <v>0</v>
-      </c>
-      <c r="J13" s="24">
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
         <v>7113.83</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="16">
         <v>14161.86</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="16">
         <v>3318441.1399999997</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="21">
         <v>10184862.529999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="16">
         <v>129171505.14</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="16">
         <v>88607066.909999996</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="16">
         <v>113571533.16000001</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="16">
         <v>124694639.36</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="16">
         <v>112056483.64999999</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="16">
         <v>57954389.689999998</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="16">
         <v>138325378.07999998</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="16">
         <v>51622528.250000007</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="16">
         <v>79074698.580000013</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="16">
         <v>67355107.780000001</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="16">
         <v>75814175.730000004</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="21">
         <v>127349809.79000001</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="16">
         <v>494022814.20999998</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="16">
         <v>479220835.13999999</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="16">
         <v>216232124.88999999</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="16">
         <v>379424173.85000002</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="16">
         <v>383505156.75999999</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="16">
         <v>342471410.51999998</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="16">
         <v>338783099.10000002</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="16">
         <v>176660820.31</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="16">
         <v>228335368.99000001</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="16">
         <v>65584879.849999994</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="16">
         <v>229865434.42000002</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="21">
         <v>63092558.339999996</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="16">
         <v>37851801.779999994</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="16">
         <v>32044841.310000002</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="16">
         <v>51317652.500000007</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="16">
         <v>34263190.050000004</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="16">
         <v>20338697.890000001</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="16">
         <v>22078625.129999999</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="16">
         <v>29121879.849999994</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="16">
         <v>34107635.009999998</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="16">
         <v>24442877.57</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="16">
         <v>19793742.650000002</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="16">
         <v>15686831.15</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="21">
         <v>15666146.190000001</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="16">
         <v>4238767.51</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="16">
         <v>3459158.8</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="16">
         <v>7816356.6200000001</v>
       </c>
-      <c r="E17" s="24">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
         <v>4285527.05</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="16">
         <v>6884292.5700000003</v>
       </c>
-      <c r="H17" s="24">
-        <v>0</v>
-      </c>
-      <c r="I17" s="24">
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
         <v>3794774.56</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="16">
         <v>1651317.06</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="16">
         <v>3405756.34</v>
       </c>
-      <c r="L17" s="24">
-        <v>0</v>
-      </c>
-      <c r="M17" s="24">
+      <c r="L17" s="16">
+        <v>0</v>
+      </c>
+      <c r="M17" s="21">
         <v>3177921.11</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="16">
         <v>7716973.4300000016</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="16">
         <v>9527375.7900000028</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="16">
         <v>16250346.65</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="16">
         <v>20541396.030000009</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="16">
         <v>14380770.269999994</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="16">
         <v>15205814.050000004</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="16">
         <v>19844584.639999993</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="16">
         <v>8909621.2799999975</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="16">
         <v>12704988.27</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="16">
         <v>10994593.209999997</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="16">
         <v>10556815.130000001</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="21">
         <v>7738771.6299999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="24">
-        <v>0</v>
-      </c>
-      <c r="C19" s="24">
-        <v>0</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0</v>
-      </c>
-      <c r="E19" s="24">
+      <c r="B19" s="16">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
         <v>21551610.019999996</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="16">
         <v>6600890.5199999996</v>
       </c>
-      <c r="G19" s="24">
-        <v>0</v>
-      </c>
-      <c r="H19" s="24">
-        <v>0</v>
-      </c>
-      <c r="I19" s="24">
-        <v>0</v>
-      </c>
-      <c r="J19" s="24">
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
         <v>2852.5</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="16">
         <v>6689863.4900000002</v>
       </c>
-      <c r="L19" s="24">
-        <v>0</v>
-      </c>
-      <c r="M19" s="24">
+      <c r="L19" s="16">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="24">
-        <v>0</v>
-      </c>
-      <c r="C20" s="24">
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
         <v>215467.34</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="16">
         <v>65729.09</v>
       </c>
-      <c r="E20" s="24">
-        <v>0</v>
-      </c>
-      <c r="F20" s="24">
-        <v>0</v>
-      </c>
-      <c r="G20" s="24">
-        <v>0</v>
-      </c>
-      <c r="H20" s="24">
-        <v>0</v>
-      </c>
-      <c r="I20" s="24">
-        <v>0</v>
-      </c>
-      <c r="J20" s="24">
-        <v>0</v>
-      </c>
-      <c r="K20" s="24">
-        <v>0</v>
-      </c>
-      <c r="L20" s="24">
-        <v>0</v>
-      </c>
-      <c r="M20" s="24">
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="M20" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="16">
         <v>14610919.110000009</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="16">
         <v>13155915.829999993</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="16">
         <v>28642876.820000004</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="16">
         <v>23289588.549999997</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="16">
         <v>22159024.069999982</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="16">
         <v>15569271.679999994</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="16">
         <v>29177298.789999995</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="16">
         <v>23094846.660000008</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="16">
         <v>20765311.800000008</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="16">
         <v>30063750.570000038</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="16">
         <v>20992249.780000016</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="21">
         <v>20989496.670000013</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="16">
         <v>901585.92999999993</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="16">
         <v>2830560.76</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="16">
         <v>1890620.53</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="16">
         <v>1711261.3199999998</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="16">
         <v>2488664.11</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="16">
         <v>3877921.6799999992</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="16">
         <v>3053495.7900000005</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="16">
         <v>2778974.06</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="16">
         <v>2485785.0900000008</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="16">
         <v>3277036.73</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="16">
         <v>3410644.6599999997</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="21">
         <v>3338261.2699999996</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="16">
         <v>117129704.53999998</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="16">
         <v>89797418.260000005</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="16">
         <v>77408192.290000007</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="16">
         <v>44407914.800000004</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="16">
         <v>21442639.75</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="16">
         <v>50966085.589999996</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="16">
         <v>54508363.160000004</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="16">
         <v>61017476.040000007</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="16">
         <v>41680617.979999997</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="16">
         <v>21918823.41</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="16">
         <v>24026690.48</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="21">
         <v>105633915.78</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="16">
         <v>299705989.05000031</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="16">
         <v>297479594.85000002</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="16">
         <v>291730730.9799999</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="16">
         <v>259321816.54000035</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="16">
         <v>248868896.05999991</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="16">
         <v>263845443.13000017</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="16">
         <v>251050144.98999986</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="16">
         <v>212768762.42999995</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="16">
         <v>220776157.79999989</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="16">
         <v>258294248.94000018</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="16">
         <v>205179422.94999984</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="21">
         <v>203821451.57999998</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="16">
         <v>10339.379999999999</v>
       </c>
-      <c r="C25" s="24">
-        <v>0</v>
-      </c>
-      <c r="D25" s="24">
-        <v>0</v>
-      </c>
-      <c r="E25" s="24">
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
         <v>4204003.63</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="16">
         <v>4251353.6900000004</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="16">
         <v>4849538.8499999996</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="16">
         <v>10075267.100000001</v>
       </c>
-      <c r="I25" s="24">
-        <v>0</v>
-      </c>
-      <c r="J25" s="24">
-        <v>0</v>
-      </c>
-      <c r="K25" s="24">
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16">
         <v>5715221.2699999996</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="16">
         <v>5955103.3699999992</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="24">
-        <v>0</v>
-      </c>
-      <c r="C26" s="24">
-        <v>0</v>
-      </c>
-      <c r="D26" s="24">
-        <v>0</v>
-      </c>
-      <c r="E26" s="24">
-        <v>0</v>
-      </c>
-      <c r="F26" s="24">
-        <v>0</v>
-      </c>
-      <c r="G26" s="24">
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
         <v>214173.28999999998</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="16">
         <v>282532.8</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="16">
         <v>90000</v>
       </c>
-      <c r="J26" s="24">
-        <v>0</v>
-      </c>
-      <c r="K26" s="24">
-        <v>0</v>
-      </c>
-      <c r="L26" s="24">
-        <v>0</v>
-      </c>
-      <c r="M26" s="24">
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="16">
         <v>6848016.5300000003</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="16">
         <v>2375844.4</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="16">
         <v>4214237.22</v>
       </c>
-      <c r="E27" s="24">
-        <v>0</v>
-      </c>
-      <c r="F27" s="24">
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
         <v>1599283.84</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="16">
         <v>6253937.21</v>
       </c>
-      <c r="H27" s="24">
-        <v>0</v>
-      </c>
-      <c r="I27" s="24">
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
         <v>6168828.1099999994</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="16">
         <v>5581695</v>
       </c>
-      <c r="K27" s="24">
-        <v>0</v>
-      </c>
-      <c r="L27" s="24">
-        <v>0</v>
-      </c>
-      <c r="M27" s="24">
+      <c r="K27" s="16">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
         <v>5534760.3700000001</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="16">
         <v>61977124.890000001</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="16">
         <v>13233928.59</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="16">
         <v>34308050.320000008</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="16">
         <v>43780689.440000005</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="16">
         <v>41655024.089999996</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="16">
         <v>39583119.259999998</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="16">
         <v>43142682.689999998</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="16">
         <v>15201654.889999999</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="16">
         <v>41074067.099999994</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="16">
         <v>32289537.979999997</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="16">
         <v>18655710.48</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="21">
         <v>52975948.199999996</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="16">
         <v>571054.65</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="16">
         <v>528147.74</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="16">
         <v>2514969.3099999996</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="16">
         <v>1346931.8900000001</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="16">
         <v>2232207.94</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="16">
         <v>4352086.26</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="16">
         <v>2330858.9299999992</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="16">
         <v>4076356.0900000003</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="16">
         <v>5306741.1199999992</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="16">
         <v>2638592.27</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="16">
         <v>1275586.9000000001</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="21">
         <v>3154643.4099999997</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="16">
         <v>173146958.04999995</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="16">
         <v>132999928.37000002</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="16">
         <v>133462765.02000001</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="16">
         <v>118824645.96999998</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="16">
         <v>129826975.41999997</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="16">
         <v>70944982.940000027</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="16">
         <v>37404145.25</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="16">
         <v>80841923.859999999</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="16">
         <v>90584506.980000004</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="16">
         <v>98878906.099999994</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="16">
         <v>72344658.729999989</v>
       </c>
-      <c r="M30" s="24">
+      <c r="M30" s="21">
         <v>77116756.450000003</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="16">
         <v>10991.9</v>
       </c>
-      <c r="C31" s="24">
-        <v>0</v>
-      </c>
-      <c r="D31" s="24">
-        <v>0</v>
-      </c>
-      <c r="E31" s="24">
-        <v>0</v>
-      </c>
-      <c r="F31" s="24">
-        <v>0</v>
-      </c>
-      <c r="G31" s="24">
-        <v>0</v>
-      </c>
-      <c r="H31" s="24">
-        <v>0</v>
-      </c>
-      <c r="I31" s="24">
-        <v>0</v>
-      </c>
-      <c r="J31" s="24">
-        <v>0</v>
-      </c>
-      <c r="K31" s="24">
-        <v>0</v>
-      </c>
-      <c r="L31" s="24">
-        <v>0</v>
-      </c>
-      <c r="M31" s="24">
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="16">
         <v>206202830.29000002</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="16">
         <v>171530101.04000008</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="16">
         <v>229046720.88</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="16">
         <v>147632727.30000004</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="16">
         <v>185579646.93999994</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="16">
         <v>165222434.75000009</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="16">
         <v>258761581.21000001</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="16">
         <v>220080883.93999988</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="16">
         <v>211756462.98999989</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="16">
         <v>258999500.44999993</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="16">
         <v>273590202.30999988</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="21">
         <v>242754279.7100001</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="16">
         <v>107696403.56999986</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="16">
         <v>113306239.95</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="16">
         <v>130851516.10999995</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="16">
         <v>133345708.2500001</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="16">
         <v>112058925.94000007</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="16">
         <v>131418954.41000006</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="16">
         <v>118169779.07000008</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="16">
         <v>112239270.06999989</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="16">
         <v>125240930.42999996</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="16">
         <v>129210110.33000007</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="16">
         <v>130912637.21999976</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="21">
         <v>123522222.47000003</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="16">
         <v>216259644.09000003</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="16">
         <v>129901302.20000002</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="16">
         <v>107946956.38</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="16">
         <v>222138252.41</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="16">
         <v>74815790.909999996</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="16">
         <v>154097986.94</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="16">
         <v>103563818.69999999</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="16">
         <v>159998469.13</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="16">
         <v>94343511.180000007</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34" s="16">
         <v>185321050.22999999</v>
       </c>
-      <c r="L34" s="24">
+      <c r="L34" s="16">
         <v>119061044.42999999</v>
       </c>
-      <c r="M34" s="24">
+      <c r="M34" s="21">
         <v>154779057.18000001</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="24">
-        <v>0</v>
-      </c>
-      <c r="C35" s="24">
-        <v>0</v>
-      </c>
-      <c r="D35" s="24">
-        <v>0</v>
-      </c>
-      <c r="E35" s="24">
-        <v>0</v>
-      </c>
-      <c r="F35" s="24">
+      <c r="B35" s="16">
+        <v>0</v>
+      </c>
+      <c r="C35" s="16">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
         <v>659.62</v>
       </c>
-      <c r="G35" s="24">
-        <v>0</v>
-      </c>
-      <c r="H35" s="24">
-        <v>0</v>
-      </c>
-      <c r="I35" s="24">
+      <c r="G35" s="16">
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
         <v>95.6</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="16">
         <v>4108.6099999999997</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K35" s="16">
         <v>683.25</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="16">
         <v>3627.03</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M35" s="21">
         <v>1072.83</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="16">
         <v>16957.419999999998</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="16">
         <v>24994.29</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="16">
         <v>48387.32</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="16">
         <v>198917.24</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="16">
         <v>16934.580000000002</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="16">
         <v>68814.070000000007</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="16">
         <v>565786.39</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="16">
         <v>39778.04</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="16">
         <v>14543.91</v>
       </c>
-      <c r="K36" s="24">
+      <c r="K36" s="16">
         <v>48409.08</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="16">
         <v>69604.899999999994</v>
       </c>
-      <c r="M36" s="24">
+      <c r="M36" s="21">
         <v>45799.76</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="16">
         <v>143021713.72999999</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="16">
         <v>104084606.38</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="16">
         <v>106885915.00000001</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="16">
         <v>81682475.199999988</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="16">
         <v>69715748.480000004</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="16">
         <v>64429801.160000004</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="16">
         <v>99786324.450000003</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="16">
         <v>47204980.829999998</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="16">
         <v>33880185.549999997</v>
       </c>
-      <c r="K37" s="24">
+      <c r="K37" s="16">
         <v>66384337.039999999</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="16">
         <v>65825191.890000001</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="21">
         <v>48865115.350000001</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="16">
         <v>2901288.9200000004</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="16">
         <v>318417.99</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="16">
         <v>965199.15999999992</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="16">
         <v>2140525.84</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="16">
         <v>1611747.48</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="16">
         <v>2953769.9499999997</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="16">
         <v>6150012.5800000001</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="16">
         <v>5547978.1299999999</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="16">
         <v>3005200.79</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38" s="16">
         <v>3233291.34</v>
       </c>
-      <c r="L38" s="24">
+      <c r="L38" s="16">
         <v>3222390.3899999997</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="21">
         <v>1887255.3</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="24">
-        <v>0</v>
-      </c>
-      <c r="C39" s="24">
-        <v>0</v>
-      </c>
-      <c r="D39" s="24">
+      <c r="B39" s="16">
+        <v>0</v>
+      </c>
+      <c r="C39" s="16">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16">
         <v>3439.7</v>
       </c>
-      <c r="E39" s="24">
-        <v>0</v>
-      </c>
-      <c r="F39" s="24">
-        <v>0</v>
-      </c>
-      <c r="G39" s="24">
-        <v>0</v>
-      </c>
-      <c r="H39" s="24">
-        <v>0</v>
-      </c>
-      <c r="I39" s="24">
-        <v>0</v>
-      </c>
-      <c r="J39" s="24">
-        <v>0</v>
-      </c>
-      <c r="K39" s="24">
-        <v>0</v>
-      </c>
-      <c r="L39" s="24">
-        <v>0</v>
-      </c>
-      <c r="M39" s="24">
+      <c r="E39" s="16">
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
+        <v>0</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0</v>
+      </c>
+      <c r="M39" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="16">
         <v>5980323.7100000046</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="16">
         <v>3090994.5000000023</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="16">
         <v>6605598.21</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="16">
         <v>4232101.7799999993</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="16">
         <v>4466537.1199999973</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="16">
         <v>3991325.5599999996</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="16">
         <v>4842106.46</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="16">
         <v>4563805.2399999993</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="16">
         <v>2799837.0700000003</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="16">
         <v>4070489.7199999997</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="16">
         <v>4650569.2500000009</v>
       </c>
-      <c r="M40" s="24">
+      <c r="M40" s="21">
         <v>3077215.7099999995</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="16">
         <v>2400631.9300000002</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="16">
         <v>4359907.76</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="16">
         <v>3909478.78</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="16">
         <v>7681217.9800000004</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="16">
         <v>5229733.3899999997</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="16">
         <v>4298362.93</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="16">
         <v>7324488.1300000008</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="16">
         <v>8626159.8300000001</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="16">
         <v>6906373.8299999991</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="16">
         <v>6361999.8300000001</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="16">
         <v>6348619.2000000002</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="21">
         <v>5157511.8800000018</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="16">
         <v>159726285.21000001</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="16">
         <v>102534216.95</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="16">
         <v>58289684.600000001</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="16">
         <v>162949011.58999997</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="16">
         <v>156501712.41000003</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="16">
         <v>105150947.02</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="16">
         <v>151366664.69</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="16">
         <v>49173012.739999995</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="16">
         <v>88789876.829999998</v>
       </c>
-      <c r="K42" s="24">
+      <c r="K42" s="16">
         <v>106818599.80999999</v>
       </c>
-      <c r="L42" s="24">
+      <c r="L42" s="16">
         <v>82667683.020000011</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="21">
         <v>177458346.35999998</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="16">
         <v>8327828.0399999991</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="16">
         <v>10005316.27</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="16">
         <v>4769462.4000000004</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="16">
         <v>17950473.68</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="16">
         <v>16551747.6</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="16">
         <v>18430452.82</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="16">
         <v>8426085.5999999996</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="16">
         <v>11696266.48</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="16">
         <v>9346002.2599999998</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K43" s="16">
         <v>9723386.9900000002</v>
       </c>
-      <c r="L43" s="24">
+      <c r="L43" s="16">
         <v>17830328.850000001</v>
       </c>
-      <c r="M43" s="24">
+      <c r="M43" s="21">
         <v>11871368.1</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="16">
         <v>4306083.7</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="16">
         <v>1379263.31</v>
       </c>
-      <c r="D44" s="24">
-        <v>0</v>
-      </c>
-      <c r="E44" s="24">
+      <c r="D44" s="16">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
         <v>2611596.92</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="16">
         <v>1461456.41</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="16">
         <v>16407.68</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="16">
         <v>1260133.48</v>
       </c>
-      <c r="I44" s="24">
-        <v>0</v>
-      </c>
-      <c r="J44" s="24">
-        <v>0</v>
-      </c>
-      <c r="K44" s="24">
+      <c r="I44" s="16">
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
         <v>2964135.45</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="16">
         <v>14378.08</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="21">
         <v>3992.87</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="16">
         <v>18436467.75</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="16">
         <v>20716800.519999996</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="16">
         <v>19332323.419999998</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="16">
         <v>16403261.149999991</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="16">
         <v>21273324.790000003</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="16">
         <v>18523249.039999999</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="16">
         <v>15339336.840000002</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="16">
         <v>28021518.979999989</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="16">
         <v>23736947.900000002</v>
       </c>
-      <c r="K45" s="24">
+      <c r="K45" s="16">
         <v>30225834.459999993</v>
       </c>
-      <c r="L45" s="24">
+      <c r="L45" s="16">
         <v>24416463.269999996</v>
       </c>
-      <c r="M45" s="24">
+      <c r="M45" s="21">
         <v>28307044.68</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="16">
         <v>759684103.71000016</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="16">
         <v>796452468.93999982</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="16">
         <v>707892361.08999991</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="16">
         <v>607819537.32000005</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="16">
         <v>631063927.14999986</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="16">
         <v>629444036.42000008</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="16">
         <v>793736530.3299998</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="16">
         <v>766359584.64999986</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="16">
         <v>1049863203.6400003</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="16">
         <v>744542512.06999969</v>
       </c>
-      <c r="L46" s="24">
+      <c r="L46" s="16">
         <v>828419337.05999994</v>
       </c>
-      <c r="M46" s="24">
+      <c r="M46" s="21">
         <v>790138312.29999995</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="16">
         <v>8262923.209999999</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="16">
         <v>400662.73000000004</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="16">
         <v>3756771.4499999997</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="16">
         <v>13554158.109999999</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="16">
         <v>167111.42000000001</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="16">
         <v>10622006.239999998</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="16">
         <v>413657.93</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="16">
         <v>84241655.900000021</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="16">
         <v>1910170.3600000003</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="16">
         <v>276905.75</v>
       </c>
-      <c r="L47" s="24">
+      <c r="L47" s="16">
         <v>510284.56999999995</v>
       </c>
-      <c r="M47" s="24">
+      <c r="M47" s="21">
         <v>594441.45000000007</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="16">
         <v>15329332.58</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="16">
         <v>5189446.17</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="16">
         <v>13926619.500000002</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="16">
         <v>5565283.3200000003</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="16">
         <v>1255904.2299999997</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="16">
         <v>5219646.26</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="16">
         <v>6243664.6700000009</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="16">
         <v>3070502.5599999996</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J48" s="16">
         <v>1208962.5499999998</v>
       </c>
-      <c r="K48" s="24">
+      <c r="K48" s="16">
         <v>3054006.45</v>
       </c>
-      <c r="L48" s="24">
+      <c r="L48" s="16">
         <v>3939837.9599999995</v>
       </c>
-      <c r="M48" s="24">
+      <c r="M48" s="21">
         <v>6272470.3099999987</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B49" s="16">
         <v>571303.42000000004</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="16">
         <v>3071647.55</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="16">
         <v>4072662.89</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="16">
         <v>10377819.91</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="16">
         <v>25797695.41</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="16">
         <v>2000504.2399999998</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="16">
         <v>743698.89</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="16">
         <v>115079.87000000001</v>
       </c>
-      <c r="J49" s="24">
+      <c r="J49" s="16">
         <v>749994.33</v>
       </c>
-      <c r="K49" s="24">
+      <c r="K49" s="16">
         <v>5424186.96</v>
       </c>
-      <c r="L49" s="24">
+      <c r="L49" s="16">
         <v>972774.38</v>
       </c>
-      <c r="M49" s="24">
+      <c r="M49" s="21">
         <v>13633459.790000001</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="16">
         <v>642408127.98999894</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="16">
         <v>551311056.76000059</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="16">
         <v>730776940.7900002</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="16">
         <v>727931229.84999847</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="16">
         <v>610573183.94000053</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="16">
         <v>732531748.64000213</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H50" s="16">
         <v>678211379.04000163</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="16">
         <v>562672332.47000074</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="16">
         <v>735189315.09000039</v>
       </c>
-      <c r="K50" s="24">
+      <c r="K50" s="16">
         <v>703102105.70999968</v>
       </c>
-      <c r="L50" s="24">
+      <c r="L50" s="16">
         <v>630382919.42999971</v>
       </c>
-      <c r="M50" s="24">
+      <c r="M50" s="21">
         <v>659515523.97999907</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B51" s="16">
         <v>1562170</v>
       </c>
-      <c r="C51" s="24">
-        <v>0</v>
-      </c>
-      <c r="D51" s="24">
-        <v>0</v>
-      </c>
-      <c r="E51" s="24">
-        <v>0</v>
-      </c>
-      <c r="F51" s="24">
-        <v>0</v>
-      </c>
-      <c r="G51" s="24">
-        <v>0</v>
-      </c>
-      <c r="H51" s="24">
-        <v>0</v>
-      </c>
-      <c r="I51" s="24">
-        <v>0</v>
-      </c>
-      <c r="J51" s="24">
+      <c r="C51" s="16">
+        <v>0</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0</v>
+      </c>
+      <c r="G51" s="16">
+        <v>0</v>
+      </c>
+      <c r="H51" s="16">
+        <v>0</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0</v>
+      </c>
+      <c r="J51" s="16">
         <v>1071384.28</v>
       </c>
-      <c r="K51" s="24">
-        <v>0</v>
-      </c>
-      <c r="L51" s="24">
-        <v>0</v>
-      </c>
-      <c r="M51" s="24">
+      <c r="K51" s="16">
+        <v>0</v>
+      </c>
+      <c r="L51" s="16">
+        <v>0</v>
+      </c>
+      <c r="M51" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="16">
         <v>481161.75</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="16">
         <v>37113.759999999995</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="16">
         <v>127440</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="16">
         <v>92885.6</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="16">
         <v>141110.6</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="16">
         <v>69572.200000000012</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="16">
         <v>65543</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="16">
         <v>204483.27000000002</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="16">
         <v>126230.58</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="16">
         <v>22796</v>
       </c>
-      <c r="L52" s="24">
+      <c r="L52" s="16">
         <v>196917.28</v>
       </c>
-      <c r="M52" s="24">
+      <c r="M52" s="21">
         <v>19796</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="16">
         <v>437.1</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="16">
         <v>548643.99</v>
       </c>
-      <c r="D53" s="24">
-        <v>0</v>
-      </c>
-      <c r="E53" s="24">
-        <v>0</v>
-      </c>
-      <c r="F53" s="24">
-        <v>0</v>
-      </c>
-      <c r="G53" s="24">
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16">
+        <v>0</v>
+      </c>
+      <c r="G53" s="16">
         <v>383518.32</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="16">
         <v>264268</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="16">
         <v>356600.96</v>
       </c>
-      <c r="J53" s="24">
-        <v>0</v>
-      </c>
-      <c r="K53" s="24">
+      <c r="J53" s="16">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
         <v>2000</v>
       </c>
-      <c r="L53" s="24">
+      <c r="L53" s="16">
         <v>1056.8599999999999</v>
       </c>
-      <c r="M53" s="24">
+      <c r="M53" s="21">
         <v>930689.73</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B54" s="16">
         <v>305198956.51000023</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="16">
         <v>287327223.23999989</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="16">
         <v>311383023.48000014</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="16">
         <v>263316158.21999994</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="16">
         <v>240079848.02000004</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="16">
         <v>261346292.5500001</v>
       </c>
-      <c r="H54" s="24">
+      <c r="H54" s="16">
         <v>267341672.72999999</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I54" s="16">
         <v>211636469.02000004</v>
       </c>
-      <c r="J54" s="24">
+      <c r="J54" s="16">
         <v>248082147.55000022</v>
       </c>
-      <c r="K54" s="24">
+      <c r="K54" s="16">
         <v>201834800.79000005</v>
       </c>
-      <c r="L54" s="24">
+      <c r="L54" s="16">
         <v>227460592.76000008</v>
       </c>
-      <c r="M54" s="24">
+      <c r="M54" s="21">
         <v>227195022.0500001</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="16">
         <v>216128.58000000002</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="16">
         <v>337224.1</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="16">
         <v>1126883</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="16">
         <v>857980.55</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="16">
         <v>8089421.4100000001</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="16">
         <v>6109769.7300000004</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="16">
         <v>1587274.1700000002</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="16">
         <v>920050.78999999992</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J55" s="16">
         <v>9003736.0299999993</v>
       </c>
-      <c r="K55" s="24">
+      <c r="K55" s="16">
         <v>7784670.4600000009</v>
       </c>
-      <c r="L55" s="24">
+      <c r="L55" s="16">
         <v>650072.56999999995</v>
       </c>
-      <c r="M55" s="24">
+      <c r="M55" s="21">
         <v>486827.52999999997</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="16">
         <v>76629527.480000019</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="16">
         <v>58935553.600000009</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="16">
         <v>64570844.75999999</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="16">
         <v>95737385.069999978</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="16">
         <v>58048453.510000005</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="16">
         <v>62291944.089999989</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="16">
         <v>75033107.98999998</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="16">
         <v>60180910.010000005</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="16">
         <v>52491167.839999996</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K56" s="16">
         <v>104934451.19</v>
       </c>
-      <c r="L56" s="24">
+      <c r="L56" s="16">
         <v>20023961.830000002</v>
       </c>
-      <c r="M56" s="24">
+      <c r="M56" s="21">
         <v>77990946.170000002</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="16">
         <v>1243174976.9899991</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="16">
         <v>866623918.43000078</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="16">
         <v>969736699.21999836</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="16">
         <v>990293705.91999829</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="16">
         <v>647843161.9800005</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="16">
         <v>558334428.78999972</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="16">
         <v>1059688435.4299984</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="16">
         <v>552513397.14000022</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="16">
         <v>566073956.48999906</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="16">
         <v>556663188.7900002</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="16">
         <v>476235702.65999901</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="21">
         <v>670228748.6700002</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="16">
         <v>93240780.829999998</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="16">
         <v>173996408.51999998</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="16">
         <v>100964054.02</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="16">
         <v>187809683.13999999</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="16">
         <v>148951723.28</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="16">
         <v>71964463.640000001</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H58" s="16">
         <v>696888947.25999999</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="16">
         <v>213324276.04999998</v>
       </c>
-      <c r="J58" s="24">
+      <c r="J58" s="16">
         <v>262843598.21000001</v>
       </c>
-      <c r="K58" s="24">
+      <c r="K58" s="16">
         <v>171203984.33000001</v>
       </c>
-      <c r="L58" s="24">
+      <c r="L58" s="16">
         <v>113252495.97999997</v>
       </c>
-      <c r="M58" s="24">
+      <c r="M58" s="21">
         <v>73140452.290000007</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="24">
+      <c r="B59" s="28">
         <v>69932409.049999997</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="28">
         <v>40651778.719999976</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="28">
         <v>48260299.579999976</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="28">
         <v>59577703.430000007</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F59" s="28">
         <v>38812706.960000023</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="28">
         <v>56112330.499999985</v>
       </c>
-      <c r="H59" s="24">
+      <c r="H59" s="28">
         <v>60628920.519999966</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="28">
         <v>48300983.329999998</v>
       </c>
-      <c r="J59" s="24">
+      <c r="J59" s="28">
         <v>44976696.529999979</v>
       </c>
-      <c r="K59" s="24">
+      <c r="K59" s="28">
         <v>45914561.75</v>
       </c>
-      <c r="L59" s="24">
+      <c r="L59" s="28">
         <v>69589253.599999979</v>
       </c>
-      <c r="M59" s="24">
+      <c r="M59" s="29">
         <v>56533757.210000008</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>